--- a/healthcare_data.xlsx
+++ b/healthcare_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -743,6 +743,1706 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Tension Headache</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>dull head pain, tight neck, pressure around forehead</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>rest, gentle stretching, warm compress, stay hydrated</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Back Strain</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>lower back pain, muscle tightness, stiffness</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>gentle stretching, avoid heavy lifting, warm compress, short walks</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Dehydration</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>dry mouth, dizziness, tiredness</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>sip fluids gradually, add electrolytes, avoid caffeine, rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Constipation</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>hard stools, bloating, stomach discomfort</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>increase fiber, drink water, light exercise, warm tea</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Eczema</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>dry skin, redness, itching</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>apply moisturizer, avoid harsh soaps, cool compress, breathable fabrics</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Acid Reflux</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>chest burning, bitter taste, throat irritation</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>smaller meals, avoid lying down after eating, limit spicy foods, sip water</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Lactose Intolerance</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>bloating, gas, stomach discomfort</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>choose lactose-free products, track trigger foods, enzyme supplements, smaller portions</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Plantar Fasciitis</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>heel pain, stiffness, pain worse in morning</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>arch stretches, supportive shoes, cold pack, avoid prolonged standing</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Carpal Tunnel</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>wrist tingling, hand numbness, grip weakness</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>wrist rest, ergonomic posture, finger stretches, avoid strain</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Mild Anxiety</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>restlessness, racing thoughts, trouble sleeping</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>deep breathing, journaling, calming music, light exercise</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Dry Eyes</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>redness, gritty feeling, mild irritation</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>use artificial tears, blink breaks, avoid dry air, reduce screen time</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Indigestion</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>bloating, fullness, stomach discomfort</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>eat slowly, avoid greasy foods, warm herbal tea, light movement</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Irritable Bowel</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>cramping, bloating, irregular bowel movements</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>avoid trigger foods, increase fiber gradually, warm compress, relax and rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Neck Strain</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>neck stiffness, shoulder tension, limited movement</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>gentle stretches, warm shower, avoid poor posture, slow movement</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Ear Congestion</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>ear pressure, muffled sound, mild discomfort</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>yawn/swallow often, warm compress, stay upright, avoid loud sounds</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Dry Throat</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>scratchy throat, dryness, irritation</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>sip warm liquids, use humidifier, avoid overly cold drinks, rest voice</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Gas Pain</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>bloating, stomach cramping, pressure</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>gentle walking, warm tea, avoid carbonated drinks, light meals</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Eye Strain</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>tired eyes, slight headache, blurred focus</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>20-20-20 screen break rule, blink often, adjust brightness, relax eyes</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Muscle Soreness</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>tender muscles, stiffness, mild weakness</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>light stretching, warm bath, stay hydrated, avoid sudden strain</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Shin Splints</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>shin pain, tenderness, discomfort while walking</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>rest legs, ice pack, supportive footwear, gradual activity return</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Mild Heartburn</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>burning chest sensation, throat irritation, sour taste</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>avoid large meals, eat slowly, avoid acidic foods, stay upright</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Allergic Rhinitis</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>sneeze, runny nose, itchy nose</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>avoid allergens, saline rinse, keep windows closed, use air filter</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Scalp Irritation</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>itchy scalp, dryness, flaking</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>use mild shampoo, avoid hot water, moisturize scalp, avoid scratching</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Jaw Tension</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>jaw tightness, clicking, facial discomfort</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>jaw relaxation exercises, soft foods, warm compress, avoid clenching</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Shoulder Strain</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>shoulder stiffness, soreness, reduced range of motion</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>light stretching, warm compress, avoid heavy bags, slow arm circles</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Hip Tightness</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>stiff hips, discomfort when sitting, limited mobility</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>hip stretches, short walks, avoid prolonged sitting, light mobility work</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Mouth Ulcers</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>small sore, tenderness, discomfort when eating</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>avoid spicy foods, rinse with salt water, stay hydrated, eat soft foods</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Cold Sores</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>tingling around lips, small blisters, mild pain</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>apply lip balm, avoid picking, cold compress, stay hydrated</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Dry Skin</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>rough patches, flakiness, mild itching</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>use moisturizer, avoid hot showers, drink water, wear soft fabrics</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Chapped Lips</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>dry lips, cracking, stinging sensation</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>use lip balm, avoid licking lips, drink water, protect from wind</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Mild Nausea</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>queasy feeling, stomach unease, loss of appetite</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>sip clear liquids, avoid heavy foods, fresh air, small snacks</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Mild Dizziness</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>lightheadedness, unsteady feeling, tiredness</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>sit down, drink water, slow breathing, avoid sudden movements</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Sinus Pressure</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>facial pressure, nasal stuffiness, dull headache</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>steam inhalation, warm compress, stay hydrated, rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Dry Nose</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>nasal dryness, slight irritation, discomfort</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>saline spray, humidifier, drink water, avoid very dry air</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Mild Tooth Sensitivity</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>sensitivity to cold foods, gum tenderness, slight ache</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>use sensitivity toothpaste, avoid cold items, gentle brushing, rinse with warm water</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Inner Thigh Chafing</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>skin redness, soreness, irritation</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>apply moisturizer, wear breathable fabrics, avoid friction, keep area dry</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Mild Insomnia</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>difficulty falling asleep, restless mind, tossing and turning</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>set sleep schedule, avoid screens before bed, calming breathing, dim lights</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Overthinking</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>mental fatigue, racing thoughts, tension</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>deep breathing, write thoughts out, take a walk, calming music</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Mild Jet Lag</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>sleep disruption, tiredness, low focus</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>expose to daylight, stay hydrated, short naps, adjust sleep time gradually</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Sore Feet</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>tender soles, tingling, discomfort after standing</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>foot stretches, supportive shoes, elevate feet, warm soak</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Mild Wrist Sprain</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>wrist soreness, mild swelling, reduced strength</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>rest wrist, gentle movement, cold pack, avoid strain</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Finger Joint Irritation</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>stiff fingers, small aches, reduced grip</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>warm soak, gentle finger stretches, avoid overuse, light hand exercise</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Skin Irritation</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>redness, mild itching, surface discomfort</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>avoid irritants, rinse with cool water, apply gentle lotion, keep area dry</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Low Appetite</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>reduced hunger, low interest in food, mild fatigue</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>eat small meals, try warm soups, choose easy-to-digest foods, relax before meals</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Hiccup Episode</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>repetitive hiccups, chest spasms, brief discomfort</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>slow breathing, sip water, swallow slowly, relax body</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Throat Dryness</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>scratchy feeling, dryness, rough speech</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>sip warm tea, use humidifier, rest voice, avoid dry environments</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Skin Sensitivity</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>mild burning sensation, surface tenderness, discomfort when touched</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>avoid friction, use soft fabrics, apply moisturizer, keep area cool</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Mild Nerve Tingling</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>pins and needles, slight numbness, light buzzing sensation</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>change sitting position, stretch area, gentle movement, avoid pressure</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Stiff Elbow</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>joint tightness, reduced range, mild soreness</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>slow stretching, warm compress, avoid repetitive motion, light movement</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Hamstring Tightness</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>back of leg stiffness, reduced flexibility, pulling sensation</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>gentle stretching, warm up before activity, avoid sudden strain, light massage</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Knee Discomfort</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>mild ache, stiffness, pressure when bending</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>avoid deep bends, slow stretching, supportive shoes, short walks</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Mild Dehydrated Skin</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>tight skin, flakiness, dullness</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>apply moisturizer, drink water, avoid very hot showers, use gentle cleansers</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Light Sensitivity</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>discomfort in bright light, eye strain, mild headache</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>wear sunglasses, reduce screen brightness, rest eyes, avoid glare</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Nasal Dryness</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>dry passages, slight burning, crusting</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>saline spray, humidifier, sip water, avoid dry wind</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Mild Bloating</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>fullness, stomach pressure, discomfort</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>peppermint tea, gentle walk, avoid carbonated drinks, chew slowly</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Sore Jaw</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>jaw fatigue, dull ache, difficulty chewing</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>soft foods, jaw rest, warm compress, gentle stretching</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Chronic Sitting Fatigue</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>lower back discomfort, hip tightness, sluggishness</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>stand and stretch regularly, short walks, adjust chair height, keep posture neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Low Hydration Skin</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>dull complexion, tight feeling, uneven texture</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>apply hydrating moisturizer, increase water intake, avoid hot showers, use humidifier</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Brittle Nails</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>nail splitting, dryness, weak texture</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>apply cuticle oil, avoid harsh cleaners, keep nails trimmed, increase hydration</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Static Hair</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>flyaway hair, dryness, frizz</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>use conditioner, avoid over-brushing, humidify room, gentle combing</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Scalp Dryness</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>flaking, tightness, mild itch</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>use moisturizing shampoo, avoid very hot showers, massage scalp gently, stay hydrated</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Shoulder Blade Tightness</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>tension between shoulder blades, stiffness, mild discomfort</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>gentle stretching, correct posture, warm compress, slow deep breaths</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Mild Sinus Dryness</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>dry nasal passages, mild pressure, slight irritation</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>steam inhalation, humidifier, sip warm liquids, avoid dry air</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Keyboard Strain</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>finger tension, wrist tightness, forearm fatigue</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>ergonomic typing posture, wrist breaks, stretch hands, relax shoulders</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Heavy Eyes from Screens</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>eyelid heaviness, eye strain, low focus</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>screen breaks, blink often, adjust lighting, hydrate body</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Morning Grogginess</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>sluggish waking, low energy, slow thinking</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>gradually adjust sleep schedule, morning sunlight, water on waking, gentle stretching</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Mild Motion Sickness</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>nausea, dizziness, head discomfort</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>fresh airflow, focus on horizon, sip water, avoid heavy meals</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Post-Workout Fatigue</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>low energy, muscle tiredness, mild soreness</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>replenish fluids, light stretching, small nutritious snack, rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Mild Sugar Crash</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>tiredness, irritability, low energy</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>eat balanced snack, drink water, steady breathing, avoid sugary foods</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Screen Overuse Fatigue</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>eye strain, tension headache, mental fog</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>take screen breaks, reduce brightness, stretch neck, look at distant objects</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Crowded-Space Overstimulation</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>head tension, restlessness, difficulty focusing</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>step into fresh air, deep breathing, calming music, quiet environment</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Mild Chest Muscle Strain</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>localized chest soreness, pain when moving, mild tightness</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>rest chest muscles, warm compress, slow deep breathing, avoid heavy lifting</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Ankle Soreness</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>joint tightness, light swelling, discomfort walking</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>rest ankle, elevate foot, supportive footwear, gentle ankle rotations</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Thigh Muscle Fatigue</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>tired legs, heaviness, tightness</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>light stretching, hydrate, avoid sudden exertion, warm shower</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Head Pressure from Stress</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>tight forehead, temples pressure, mental fatigue</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>slow breathing, dim lights, gentle neck stretch, drink water</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Skin Drying from Weather</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>tight skin, roughness, flaking</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>use moisturizer, avoid harsh wind, drink water, use gentle soap</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Windburned Skin</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>redness, tenderness, dryness</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>apply soothing lotion, avoid further wind, cool compress, keep skin covered</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Mild Hunger Headache</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>dull headache, low energy, light irritability</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>eat small snack, drink water, rest briefly, avoid skipping meals</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Mild Dehydration Fatigue</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>low energy, dry lips, sluggishness</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>sip fluids steadily, include electrolytes, avoid excessive caffeine, rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Heat Exposure Fatigue</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>tiredness, dry mouth, light dizziness</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>move to shade, sip water, cool body slowly, loosen clothing</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Cold Air Throat Irritation</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>dry throat, scratchiness, mild hoarseness</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>sip warm water, use scarf, humidify air, rest voice</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Arm Muscle Tightness</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>stiff arms, muscle tension, reduced flexibility</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>gentle stretching, warm shower, stay hydrated, avoid sudden strain</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Calf Tightness</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>tight calves, pulling sensation, discomfort during walking</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>calf stretches, gradual movement, warm compress, avoid long standing</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Abdominal Tightness</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>stomach muscle tenderness, stiffness, discomfort when bending</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>light stretching, warm compress, slow breathing, avoid heavy meals</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Mild Overwork Fatigue</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>mental tiredness, slow focus, low motivation</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>short break, light snack, drink water, gentle movement</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
